--- a/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -497,6 +497,81 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -854,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6969,6 +7044,1031 @@
         <v>1.25</v>
       </c>
     </row>
+    <row r="150" spans="1:13">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150">
+        <v>2.57</v>
+      </c>
+      <c r="C150">
+        <v>2.91</v>
+      </c>
+      <c r="D150">
+        <v>3.19</v>
+      </c>
+      <c r="E150">
+        <v>3.44</v>
+      </c>
+      <c r="F150">
+        <v>4.22</v>
+      </c>
+      <c r="G150">
+        <v>-1.36</v>
+      </c>
+      <c r="H150">
+        <v>-0.77</v>
+      </c>
+      <c r="I150">
+        <v>-0.37</v>
+      </c>
+      <c r="J150">
+        <v>-0.03</v>
+      </c>
+      <c r="K150">
+        <v>0.22</v>
+      </c>
+      <c r="L150">
+        <v>1.02</v>
+      </c>
+      <c r="M150">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151">
+        <v>2.63</v>
+      </c>
+      <c r="C151">
+        <v>2.98</v>
+      </c>
+      <c r="D151">
+        <v>3.27</v>
+      </c>
+      <c r="E151">
+        <v>3.52</v>
+      </c>
+      <c r="F151">
+        <v>4.28</v>
+      </c>
+      <c r="G151">
+        <v>-1.36</v>
+      </c>
+      <c r="H151">
+        <v>-0.73</v>
+      </c>
+      <c r="I151">
+        <v>-0.32</v>
+      </c>
+      <c r="J151">
+        <v>0.01</v>
+      </c>
+      <c r="K151">
+        <v>0.27</v>
+      </c>
+      <c r="L151">
+        <v>1.08</v>
+      </c>
+      <c r="M151">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152">
+        <v>2.66</v>
+      </c>
+      <c r="C152">
+        <v>3.01</v>
+      </c>
+      <c r="D152">
+        <v>3.31</v>
+      </c>
+      <c r="E152">
+        <v>3.56</v>
+      </c>
+      <c r="F152">
+        <v>4.34</v>
+      </c>
+      <c r="G152">
+        <v>-1.34</v>
+      </c>
+      <c r="H152">
+        <v>-0.7</v>
+      </c>
+      <c r="I152">
+        <v>-0.28</v>
+      </c>
+      <c r="J152">
+        <v>0.05</v>
+      </c>
+      <c r="K152">
+        <v>0.3</v>
+      </c>
+      <c r="L152">
+        <v>1.11</v>
+      </c>
+      <c r="M152">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153">
+        <v>2.7</v>
+      </c>
+      <c r="C153">
+        <v>3.06</v>
+      </c>
+      <c r="D153">
+        <v>3.36</v>
+      </c>
+      <c r="E153">
+        <v>3.61</v>
+      </c>
+      <c r="F153">
+        <v>4.4</v>
+      </c>
+      <c r="G153">
+        <v>-1.34</v>
+      </c>
+      <c r="H153">
+        <v>-0.66</v>
+      </c>
+      <c r="I153">
+        <v>-0.23</v>
+      </c>
+      <c r="J153">
+        <v>0.1</v>
+      </c>
+      <c r="K153">
+        <v>0.36</v>
+      </c>
+      <c r="L153">
+        <v>1.18</v>
+      </c>
+      <c r="M153">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154">
+        <v>2.84</v>
+      </c>
+      <c r="C154">
+        <v>3.17</v>
+      </c>
+      <c r="D154">
+        <v>3.46</v>
+      </c>
+      <c r="E154">
+        <v>3.72</v>
+      </c>
+      <c r="F154">
+        <v>4.46</v>
+      </c>
+      <c r="G154">
+        <v>-1.55</v>
+      </c>
+      <c r="H154">
+        <v>-0.66</v>
+      </c>
+      <c r="I154">
+        <v>-0.21</v>
+      </c>
+      <c r="J154">
+        <v>0.15</v>
+      </c>
+      <c r="K154">
+        <v>0.41</v>
+      </c>
+      <c r="L154">
+        <v>1.21</v>
+      </c>
+      <c r="M154">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155">
+        <v>2.82</v>
+      </c>
+      <c r="C155">
+        <v>3.15</v>
+      </c>
+      <c r="D155">
+        <v>3.45</v>
+      </c>
+      <c r="E155">
+        <v>3.71</v>
+      </c>
+      <c r="F155">
+        <v>4.46</v>
+      </c>
+      <c r="G155">
+        <v>-1.52</v>
+      </c>
+      <c r="H155">
+        <v>-0.68</v>
+      </c>
+      <c r="I155">
+        <v>-0.23</v>
+      </c>
+      <c r="J155">
+        <v>0.14</v>
+      </c>
+      <c r="K155">
+        <v>0.41</v>
+      </c>
+      <c r="L155">
+        <v>1.2</v>
+      </c>
+      <c r="M155">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156">
+        <v>2.8</v>
+      </c>
+      <c r="C156">
+        <v>3.13</v>
+      </c>
+      <c r="D156">
+        <v>3.44</v>
+      </c>
+      <c r="E156">
+        <v>3.7</v>
+      </c>
+      <c r="F156">
+        <v>4.45</v>
+      </c>
+      <c r="G156">
+        <v>-1.52</v>
+      </c>
+      <c r="H156">
+        <v>-0.7</v>
+      </c>
+      <c r="I156">
+        <v>-0.25</v>
+      </c>
+      <c r="J156">
+        <v>0.14</v>
+      </c>
+      <c r="K156">
+        <v>0.41</v>
+      </c>
+      <c r="L156">
+        <v>1.2</v>
+      </c>
+      <c r="M156">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157">
+        <v>2.9</v>
+      </c>
+      <c r="C157">
+        <v>3.23</v>
+      </c>
+      <c r="D157">
+        <v>3.52</v>
+      </c>
+      <c r="E157">
+        <v>3.77</v>
+      </c>
+      <c r="F157">
+        <v>4.49</v>
+      </c>
+      <c r="G157">
+        <v>-1.66</v>
+      </c>
+      <c r="H157">
+        <v>-0.77</v>
+      </c>
+      <c r="I157">
+        <v>-0.31</v>
+      </c>
+      <c r="J157">
+        <v>0.09</v>
+      </c>
+      <c r="K157">
+        <v>0.36</v>
+      </c>
+      <c r="L157">
+        <v>1.14</v>
+      </c>
+      <c r="M157">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158">
+        <v>2.91</v>
+      </c>
+      <c r="C158">
+        <v>3.25</v>
+      </c>
+      <c r="D158">
+        <v>3.54</v>
+      </c>
+      <c r="E158">
+        <v>3.79</v>
+      </c>
+      <c r="F158">
+        <v>4.51</v>
+      </c>
+      <c r="G158">
+        <v>-1.86</v>
+      </c>
+      <c r="H158">
+        <v>-0.85</v>
+      </c>
+      <c r="I158">
+        <v>-0.42</v>
+      </c>
+      <c r="J158">
+        <v>0.03</v>
+      </c>
+      <c r="K158">
+        <v>0.31</v>
+      </c>
+      <c r="L158">
+        <v>1.12</v>
+      </c>
+      <c r="M158">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159">
+        <v>2.93</v>
+      </c>
+      <c r="C159">
+        <v>3.27</v>
+      </c>
+      <c r="D159">
+        <v>3.53</v>
+      </c>
+      <c r="E159">
+        <v>3.78</v>
+      </c>
+      <c r="F159">
+        <v>4.48</v>
+      </c>
+      <c r="G159">
+        <v>-1.94</v>
+      </c>
+      <c r="H159">
+        <v>-0.93</v>
+      </c>
+      <c r="I159">
+        <v>-0.49</v>
+      </c>
+      <c r="J159">
+        <v>-0.06</v>
+      </c>
+      <c r="K159">
+        <v>0.24</v>
+      </c>
+      <c r="L159">
+        <v>1.07</v>
+      </c>
+      <c r="M159">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160">
+        <v>2.9</v>
+      </c>
+      <c r="C160">
+        <v>3.23</v>
+      </c>
+      <c r="D160">
+        <v>3.5</v>
+      </c>
+      <c r="E160">
+        <v>3.74</v>
+      </c>
+      <c r="F160">
+        <v>4.44</v>
+      </c>
+      <c r="G160">
+        <v>-2.08</v>
+      </c>
+      <c r="H160">
+        <v>-1.1</v>
+      </c>
+      <c r="I160">
+        <v>-0.65</v>
+      </c>
+      <c r="J160">
+        <v>-0.2</v>
+      </c>
+      <c r="K160">
+        <v>0.11</v>
+      </c>
+      <c r="L160">
+        <v>0.99</v>
+      </c>
+      <c r="M160">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161">
+        <v>2.9</v>
+      </c>
+      <c r="C161">
+        <v>3.23</v>
+      </c>
+      <c r="D161">
+        <v>3.49</v>
+      </c>
+      <c r="E161">
+        <v>3.74</v>
+      </c>
+      <c r="F161">
+        <v>4.44</v>
+      </c>
+      <c r="G161">
+        <v>-2.02</v>
+      </c>
+      <c r="H161">
+        <v>-1.02</v>
+      </c>
+      <c r="I161">
+        <v>-0.57</v>
+      </c>
+      <c r="J161">
+        <v>-0.12</v>
+      </c>
+      <c r="K161">
+        <v>0.19</v>
+      </c>
+      <c r="L161">
+        <v>1.05</v>
+      </c>
+      <c r="M161">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162">
+        <v>2.97</v>
+      </c>
+      <c r="C162">
+        <v>3.31</v>
+      </c>
+      <c r="D162">
+        <v>3.58</v>
+      </c>
+      <c r="E162">
+        <v>3.81</v>
+      </c>
+      <c r="F162">
+        <v>4.5</v>
+      </c>
+      <c r="G162">
+        <v>-1.89</v>
+      </c>
+      <c r="H162">
+        <v>-0.88</v>
+      </c>
+      <c r="I162">
+        <v>-0.44</v>
+      </c>
+      <c r="J162">
+        <v>0.03</v>
+      </c>
+      <c r="K162">
+        <v>0.33</v>
+      </c>
+      <c r="L162">
+        <v>1.18</v>
+      </c>
+      <c r="M162">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163">
+        <v>3.01</v>
+      </c>
+      <c r="C163">
+        <v>3.34</v>
+      </c>
+      <c r="D163">
+        <v>3.61</v>
+      </c>
+      <c r="E163">
+        <v>3.85</v>
+      </c>
+      <c r="F163">
+        <v>4.51</v>
+      </c>
+      <c r="G163">
+        <v>-1.88</v>
+      </c>
+      <c r="H163">
+        <v>-0.86</v>
+      </c>
+      <c r="I163">
+        <v>-0.42</v>
+      </c>
+      <c r="J163">
+        <v>0.04</v>
+      </c>
+      <c r="K163">
+        <v>0.35</v>
+      </c>
+      <c r="L163">
+        <v>1.17</v>
+      </c>
+      <c r="M163">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164">
+        <v>3.06</v>
+      </c>
+      <c r="C164">
+        <v>3.39</v>
+      </c>
+      <c r="D164">
+        <v>3.65</v>
+      </c>
+      <c r="E164">
+        <v>3.89</v>
+      </c>
+      <c r="F164">
+        <v>4.54</v>
+      </c>
+      <c r="G164">
+        <v>-1.87</v>
+      </c>
+      <c r="H164">
+        <v>-0.86</v>
+      </c>
+      <c r="I164">
+        <v>-0.42</v>
+      </c>
+      <c r="J164">
+        <v>0.04</v>
+      </c>
+      <c r="K164">
+        <v>0.35</v>
+      </c>
+      <c r="L164">
+        <v>1.18</v>
+      </c>
+      <c r="M164">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165">
+        <v>3.06</v>
+      </c>
+      <c r="C165">
+        <v>3.39</v>
+      </c>
+      <c r="D165">
+        <v>3.65</v>
+      </c>
+      <c r="E165">
+        <v>3.89</v>
+      </c>
+      <c r="F165">
+        <v>4.53</v>
+      </c>
+      <c r="G165">
+        <v>-1.88</v>
+      </c>
+      <c r="H165">
+        <v>-0.89</v>
+      </c>
+      <c r="I165">
+        <v>-0.44</v>
+      </c>
+      <c r="J165">
+        <v>0.02</v>
+      </c>
+      <c r="K165">
+        <v>0.32</v>
+      </c>
+      <c r="L165">
+        <v>1.14</v>
+      </c>
+      <c r="M165">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166">
+        <v>3.04</v>
+      </c>
+      <c r="C166">
+        <v>3.37</v>
+      </c>
+      <c r="D166">
+        <v>3.62</v>
+      </c>
+      <c r="E166">
+        <v>3.85</v>
+      </c>
+      <c r="F166">
+        <v>4.49</v>
+      </c>
+      <c r="G166">
+        <v>-1.91</v>
+      </c>
+      <c r="H166">
+        <v>-0.92</v>
+      </c>
+      <c r="I166">
+        <v>-0.46</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0.31</v>
+      </c>
+      <c r="L166">
+        <v>1.1</v>
+      </c>
+      <c r="M166">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167">
+        <v>3.01</v>
+      </c>
+      <c r="C167">
+        <v>3.33</v>
+      </c>
+      <c r="D167">
+        <v>3.58</v>
+      </c>
+      <c r="E167">
+        <v>3.81</v>
+      </c>
+      <c r="F167">
+        <v>4.44</v>
+      </c>
+      <c r="G167">
+        <v>-1.91</v>
+      </c>
+      <c r="H167">
+        <v>-0.96</v>
+      </c>
+      <c r="I167">
+        <v>-0.51</v>
+      </c>
+      <c r="J167">
+        <v>-0.04</v>
+      </c>
+      <c r="K167">
+        <v>0.27</v>
+      </c>
+      <c r="L167">
+        <v>1.06</v>
+      </c>
+      <c r="M167">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168">
+        <v>3.04</v>
+      </c>
+      <c r="C168">
+        <v>3.37</v>
+      </c>
+      <c r="D168">
+        <v>3.62</v>
+      </c>
+      <c r="E168">
+        <v>3.85</v>
+      </c>
+      <c r="F168">
+        <v>4.45</v>
+      </c>
+      <c r="G168">
+        <v>-1.9</v>
+      </c>
+      <c r="H168">
+        <v>-0.96</v>
+      </c>
+      <c r="I168">
+        <v>-0.51</v>
+      </c>
+      <c r="J168">
+        <v>-0.04</v>
+      </c>
+      <c r="K168">
+        <v>0.27</v>
+      </c>
+      <c r="L168">
+        <v>1.08</v>
+      </c>
+      <c r="M168">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169">
+        <v>3.07</v>
+      </c>
+      <c r="C169">
+        <v>3.39</v>
+      </c>
+      <c r="D169">
+        <v>3.64</v>
+      </c>
+      <c r="E169">
+        <v>3.87</v>
+      </c>
+      <c r="F169">
+        <v>4.46</v>
+      </c>
+      <c r="G169">
+        <v>-1.95</v>
+      </c>
+      <c r="H169">
+        <v>-0.96</v>
+      </c>
+      <c r="I169">
+        <v>-0.5</v>
+      </c>
+      <c r="J169">
+        <v>-0.01</v>
+      </c>
+      <c r="K169">
+        <v>0.31</v>
+      </c>
+      <c r="L169">
+        <v>1.11</v>
+      </c>
+      <c r="M169">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170">
+        <v>3.09</v>
+      </c>
+      <c r="C170">
+        <v>3.41</v>
+      </c>
+      <c r="D170">
+        <v>3.65</v>
+      </c>
+      <c r="E170">
+        <v>3.87</v>
+      </c>
+      <c r="F170">
+        <v>4.48</v>
+      </c>
+      <c r="G170">
+        <v>-1.95</v>
+      </c>
+      <c r="H170">
+        <v>-0.96</v>
+      </c>
+      <c r="I170">
+        <v>-0.5</v>
+      </c>
+      <c r="J170">
+        <v>-0.01</v>
+      </c>
+      <c r="K170">
+        <v>0.32</v>
+      </c>
+      <c r="L170">
+        <v>1.12</v>
+      </c>
+      <c r="M170">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171">
+        <v>3.12</v>
+      </c>
+      <c r="C171">
+        <v>3.45</v>
+      </c>
+      <c r="D171">
+        <v>3.69</v>
+      </c>
+      <c r="E171">
+        <v>3.89</v>
+      </c>
+      <c r="F171">
+        <v>4.53</v>
+      </c>
+      <c r="G171">
+        <v>-1.93</v>
+      </c>
+      <c r="H171">
+        <v>-0.84</v>
+      </c>
+      <c r="I171">
+        <v>-0.43</v>
+      </c>
+      <c r="J171">
+        <v>0.06</v>
+      </c>
+      <c r="K171">
+        <v>0.39</v>
+      </c>
+      <c r="L171">
+        <v>1.18</v>
+      </c>
+      <c r="M171">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172">
+        <v>3.7</v>
+      </c>
+      <c r="C172">
+        <v>3.97</v>
+      </c>
+      <c r="D172">
+        <v>4.13</v>
+      </c>
+      <c r="E172">
+        <v>4.29</v>
+      </c>
+      <c r="F172">
+        <v>4.79</v>
+      </c>
+      <c r="G172">
+        <v>-1.25</v>
+      </c>
+      <c r="H172">
+        <v>-0.36</v>
+      </c>
+      <c r="I172">
+        <v>0.05</v>
+      </c>
+      <c r="J172">
+        <v>0.52</v>
+      </c>
+      <c r="K172">
+        <v>0.8</v>
+      </c>
+      <c r="L172">
+        <v>1.49</v>
+      </c>
+      <c r="M172">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173">
+        <v>3.77</v>
+      </c>
+      <c r="C173">
+        <v>4.01</v>
+      </c>
+      <c r="D173">
+        <v>4.17</v>
+      </c>
+      <c r="E173">
+        <v>4.34</v>
+      </c>
+      <c r="F173">
+        <v>4.78</v>
+      </c>
+      <c r="G173">
+        <v>-1.09</v>
+      </c>
+      <c r="H173">
+        <v>-0.25</v>
+      </c>
+      <c r="I173">
+        <v>0.13</v>
+      </c>
+      <c r="J173">
+        <v>0.58</v>
+      </c>
+      <c r="K173">
+        <v>0.85</v>
+      </c>
+      <c r="L173">
+        <v>1.46</v>
+      </c>
+      <c r="M173">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174">
+        <v>3.8</v>
+      </c>
+      <c r="C174">
+        <v>4.05</v>
+      </c>
+      <c r="D174">
+        <v>4.2</v>
+      </c>
+      <c r="E174">
+        <v>4.36</v>
+      </c>
+      <c r="F174">
+        <v>4.82</v>
+      </c>
+      <c r="G174">
+        <v>-1.26</v>
+      </c>
+      <c r="H174">
+        <v>-0.27</v>
+      </c>
+      <c r="I174">
+        <v>0.11</v>
+      </c>
+      <c r="J174">
+        <v>0.58</v>
+      </c>
+      <c r="K174">
+        <v>0.85</v>
+      </c>
+      <c r="L174">
+        <v>1.44</v>
+      </c>
+      <c r="M174">
+        <v>1.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,21 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8069,6 +8084,211 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="175" spans="1:13">
+      <c r="A175" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175">
+        <v>3.83</v>
+      </c>
+      <c r="C175">
+        <v>4.07</v>
+      </c>
+      <c r="D175">
+        <v>4.22</v>
+      </c>
+      <c r="E175">
+        <v>4.38</v>
+      </c>
+      <c r="F175">
+        <v>4.82</v>
+      </c>
+      <c r="G175">
+        <v>-1.52</v>
+      </c>
+      <c r="H175">
+        <v>-0.29</v>
+      </c>
+      <c r="I175">
+        <v>0.09</v>
+      </c>
+      <c r="J175">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K175">
+        <v>0.83</v>
+      </c>
+      <c r="L175">
+        <v>1.44</v>
+      </c>
+      <c r="M175">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>3.87</v>
+      </c>
+      <c r="C176">
+        <v>4.13</v>
+      </c>
+      <c r="D176">
+        <v>4.28</v>
+      </c>
+      <c r="E176">
+        <v>4.44</v>
+      </c>
+      <c r="F176">
+        <v>4.89</v>
+      </c>
+      <c r="G176">
+        <v>-1.38</v>
+      </c>
+      <c r="H176">
+        <v>-0.22</v>
+      </c>
+      <c r="I176">
+        <v>0.15</v>
+      </c>
+      <c r="J176">
+        <v>0.62</v>
+      </c>
+      <c r="K176">
+        <v>0.89</v>
+      </c>
+      <c r="L176">
+        <v>1.5</v>
+      </c>
+      <c r="M176">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>3.96</v>
+      </c>
+      <c r="C177">
+        <v>4.27</v>
+      </c>
+      <c r="D177">
+        <v>4.44</v>
+      </c>
+      <c r="E177">
+        <v>4.61</v>
+      </c>
+      <c r="F177">
+        <v>5.08</v>
+      </c>
+      <c r="G177">
+        <v>-1.4</v>
+      </c>
+      <c r="H177">
+        <v>-0.1</v>
+      </c>
+      <c r="I177">
+        <v>0.27</v>
+      </c>
+      <c r="J177">
+        <v>0.75</v>
+      </c>
+      <c r="K177">
+        <v>1.03</v>
+      </c>
+      <c r="L177">
+        <v>1.65</v>
+      </c>
+      <c r="M177">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>4.12</v>
+      </c>
+      <c r="C178">
+        <v>4.44</v>
+      </c>
+      <c r="D178">
+        <v>4.62</v>
+      </c>
+      <c r="E178">
+        <v>4.79</v>
+      </c>
+      <c r="F178">
+        <v>5.31</v>
+      </c>
+      <c r="G178">
+        <v>-1.34</v>
+      </c>
+      <c r="H178">
+        <v>0.05</v>
+      </c>
+      <c r="I178">
+        <v>0.42</v>
+      </c>
+      <c r="J178">
+        <v>0.88</v>
+      </c>
+      <c r="K178">
+        <v>1.18</v>
+      </c>
+      <c r="L178">
+        <v>1.85</v>
+      </c>
+      <c r="M178">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179">
+        <v>4.01</v>
+      </c>
+      <c r="C179">
+        <v>4.34</v>
+      </c>
+      <c r="D179">
+        <v>4.52</v>
+      </c>
+      <c r="E179">
+        <v>4.69</v>
+      </c>
+      <c r="F179">
+        <v>5.2</v>
+      </c>
+      <c r="G179">
+        <v>-1.34</v>
+      </c>
+      <c r="H179">
+        <v>-0.02</v>
+      </c>
+      <c r="I179">
+        <v>0.35</v>
+      </c>
+      <c r="J179">
+        <v>0.79</v>
+      </c>
+      <c r="K179">
+        <v>1.05</v>
+      </c>
+      <c r="L179">
+        <v>1.72</v>
+      </c>
+      <c r="M179">
+        <v>1.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,18 @@
   </si>
   <si>
     <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8289,6 +8301,167 @@
         <v>1.91</v>
       </c>
     </row>
+    <row r="180" spans="1:13">
+      <c r="A180" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180">
+        <v>3.94</v>
+      </c>
+      <c r="C180">
+        <v>4.23</v>
+      </c>
+      <c r="D180">
+        <v>4.42</v>
+      </c>
+      <c r="E180">
+        <v>4.59</v>
+      </c>
+      <c r="F180">
+        <v>5.09</v>
+      </c>
+      <c r="G180">
+        <v>-1.33</v>
+      </c>
+      <c r="H180">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="I180">
+        <v>0.31</v>
+      </c>
+      <c r="J180">
+        <v>0.75</v>
+      </c>
+      <c r="K180">
+        <v>1.01</v>
+      </c>
+      <c r="L180">
+        <v>1.67</v>
+      </c>
+      <c r="M180">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181">
+        <v>3.9</v>
+      </c>
+      <c r="C181">
+        <v>4.16</v>
+      </c>
+      <c r="D181">
+        <v>4.37</v>
+      </c>
+      <c r="E181">
+        <v>4.54</v>
+      </c>
+      <c r="F181">
+        <v>5.03</v>
+      </c>
+      <c r="G181">
+        <v>-1.29</v>
+      </c>
+      <c r="H181">
+        <v>-0.08</v>
+      </c>
+      <c r="I181">
+        <v>0.29</v>
+      </c>
+      <c r="J181">
+        <v>0.72</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1.6</v>
+      </c>
+      <c r="M181">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182">
+        <v>3.87</v>
+      </c>
+      <c r="C182">
+        <v>4.11</v>
+      </c>
+      <c r="D182">
+        <v>4.3</v>
+      </c>
+      <c r="E182">
+        <v>4.46</v>
+      </c>
+      <c r="F182">
+        <v>4.95</v>
+      </c>
+      <c r="G182">
+        <v>-1.24</v>
+      </c>
+      <c r="H182">
+        <v>-0.08</v>
+      </c>
+      <c r="I182">
+        <v>0.29</v>
+      </c>
+      <c r="J182">
+        <v>0.71</v>
+      </c>
+      <c r="K182">
+        <v>0.98</v>
+      </c>
+      <c r="L182">
+        <v>1.55</v>
+      </c>
+      <c r="M182">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B183">
+        <v>3.92</v>
+      </c>
+      <c r="C183">
+        <v>4.16</v>
+      </c>
+      <c r="D183">
+        <v>4.34</v>
+      </c>
+      <c r="E183">
+        <v>4.5</v>
+      </c>
+      <c r="F183">
+        <v>4.98</v>
+      </c>
+      <c r="G183">
+        <v>-1.15</v>
+      </c>
+      <c r="I183">
+        <v>0.36</v>
+      </c>
+      <c r="J183">
+        <v>0.78</v>
+      </c>
+      <c r="K183">
+        <v>1.03</v>
+      </c>
+      <c r="L183">
+        <v>1.59</v>
+      </c>
+      <c r="M183">
+        <v>1.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Serie</t>
   </si>
@@ -599,6 +599,21 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
   </si>
 </sst>
 </file>
@@ -956,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8462,6 +8477,211 @@
         <v>1.75</v>
       </c>
     </row>
+    <row r="184" spans="1:13">
+      <c r="A184" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184">
+        <v>3.85</v>
+      </c>
+      <c r="C184">
+        <v>4.09</v>
+      </c>
+      <c r="D184">
+        <v>4.26</v>
+      </c>
+      <c r="E184">
+        <v>4.41</v>
+      </c>
+      <c r="F184">
+        <v>4.86</v>
+      </c>
+      <c r="G184">
+        <v>-0.95</v>
+      </c>
+      <c r="H184">
+        <v>-0.02</v>
+      </c>
+      <c r="I184">
+        <v>0.33</v>
+      </c>
+      <c r="J184">
+        <v>0.72</v>
+      </c>
+      <c r="K184">
+        <v>0.97</v>
+      </c>
+      <c r="L184">
+        <v>1.49</v>
+      </c>
+      <c r="M184">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" t="s">
+        <v>196</v>
+      </c>
+      <c r="B185">
+        <v>3.86</v>
+      </c>
+      <c r="C185">
+        <v>4.08</v>
+      </c>
+      <c r="D185">
+        <v>4.25</v>
+      </c>
+      <c r="E185">
+        <v>4.4</v>
+      </c>
+      <c r="F185">
+        <v>4.84</v>
+      </c>
+      <c r="G185">
+        <v>-0.9</v>
+      </c>
+      <c r="H185">
+        <v>0.04</v>
+      </c>
+      <c r="I185">
+        <v>0.37</v>
+      </c>
+      <c r="J185">
+        <v>0.75</v>
+      </c>
+      <c r="K185">
+        <v>1.01</v>
+      </c>
+      <c r="L185">
+        <v>1.5</v>
+      </c>
+      <c r="M185">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186">
+        <v>3.92</v>
+      </c>
+      <c r="C186">
+        <v>4.13</v>
+      </c>
+      <c r="D186">
+        <v>4.3</v>
+      </c>
+      <c r="E186">
+        <v>4.46</v>
+      </c>
+      <c r="F186">
+        <v>4.88</v>
+      </c>
+      <c r="G186">
+        <v>-0.86</v>
+      </c>
+      <c r="H186">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I186">
+        <v>0.4</v>
+      </c>
+      <c r="J186">
+        <v>0.78</v>
+      </c>
+      <c r="K186">
+        <v>1.04</v>
+      </c>
+      <c r="L186">
+        <v>1.53</v>
+      </c>
+      <c r="M186">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" t="s">
+        <v>198</v>
+      </c>
+      <c r="B187">
+        <v>4.04</v>
+      </c>
+      <c r="C187">
+        <v>4.27</v>
+      </c>
+      <c r="D187">
+        <v>4.44</v>
+      </c>
+      <c r="E187">
+        <v>4.6</v>
+      </c>
+      <c r="F187">
+        <v>5.04</v>
+      </c>
+      <c r="G187">
+        <v>-0.92</v>
+      </c>
+      <c r="H187">
+        <v>0.2</v>
+      </c>
+      <c r="I187">
+        <v>0.55</v>
+      </c>
+      <c r="J187">
+        <v>0.89</v>
+      </c>
+      <c r="K187">
+        <v>1.17</v>
+      </c>
+      <c r="L187">
+        <v>1.68</v>
+      </c>
+      <c r="M187">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188">
+        <v>4.13</v>
+      </c>
+      <c r="C188">
+        <v>4.37</v>
+      </c>
+      <c r="D188">
+        <v>4.53</v>
+      </c>
+      <c r="E188">
+        <v>4.69</v>
+      </c>
+      <c r="F188">
+        <v>5.12</v>
+      </c>
+      <c r="G188">
+        <v>-1</v>
+      </c>
+      <c r="H188">
+        <v>0.25</v>
+      </c>
+      <c r="I188">
+        <v>0.6</v>
+      </c>
+      <c r="J188">
+        <v>0.96</v>
+      </c>
+      <c r="K188">
+        <v>1.23</v>
+      </c>
+      <c r="L188">
+        <v>1.77</v>
+      </c>
+      <c r="M188">
+        <v>1.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Serie</t>
   </si>
@@ -614,6 +614,21 @@
   </si>
   <si>
     <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -971,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8682,6 +8697,211 @@
         <v>1.94</v>
       </c>
     </row>
+    <row r="189" spans="1:13">
+      <c r="A189" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189">
+        <v>4.19</v>
+      </c>
+      <c r="C189">
+        <v>4.43</v>
+      </c>
+      <c r="D189">
+        <v>4.6</v>
+      </c>
+      <c r="E189">
+        <v>4.76</v>
+      </c>
+      <c r="F189">
+        <v>5.22</v>
+      </c>
+      <c r="G189">
+        <v>-1.02</v>
+      </c>
+      <c r="H189">
+        <v>0.29</v>
+      </c>
+      <c r="I189">
+        <v>0.65</v>
+      </c>
+      <c r="J189">
+        <v>1.01</v>
+      </c>
+      <c r="K189">
+        <v>1.3</v>
+      </c>
+      <c r="L189">
+        <v>1.84</v>
+      </c>
+      <c r="M189">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" t="s">
+        <v>201</v>
+      </c>
+      <c r="B190">
+        <v>4.25</v>
+      </c>
+      <c r="C190">
+        <v>4.5</v>
+      </c>
+      <c r="D190">
+        <v>4.67</v>
+      </c>
+      <c r="E190">
+        <v>4.83</v>
+      </c>
+      <c r="F190">
+        <v>5.29</v>
+      </c>
+      <c r="G190">
+        <v>-1.03</v>
+      </c>
+      <c r="H190">
+        <v>0.33</v>
+      </c>
+      <c r="I190">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J190">
+        <v>1.06</v>
+      </c>
+      <c r="K190">
+        <v>1.35</v>
+      </c>
+      <c r="L190">
+        <v>1.9</v>
+      </c>
+      <c r="M190">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191" t="s">
+        <v>202</v>
+      </c>
+      <c r="B191">
+        <v>4.35</v>
+      </c>
+      <c r="C191">
+        <v>4.6</v>
+      </c>
+      <c r="D191">
+        <v>4.78</v>
+      </c>
+      <c r="E191">
+        <v>4.95</v>
+      </c>
+      <c r="F191">
+        <v>5.43</v>
+      </c>
+      <c r="G191">
+        <v>-1.16</v>
+      </c>
+      <c r="H191">
+        <v>0.33</v>
+      </c>
+      <c r="I191">
+        <v>0.73</v>
+      </c>
+      <c r="J191">
+        <v>1.1</v>
+      </c>
+      <c r="K191">
+        <v>1.41</v>
+      </c>
+      <c r="L191">
+        <v>1.98</v>
+      </c>
+      <c r="M191">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" t="s">
+        <v>203</v>
+      </c>
+      <c r="B192">
+        <v>4.38</v>
+      </c>
+      <c r="C192">
+        <v>4.64</v>
+      </c>
+      <c r="D192">
+        <v>4.84</v>
+      </c>
+      <c r="E192">
+        <v>5.02</v>
+      </c>
+      <c r="F192">
+        <v>5.47</v>
+      </c>
+      <c r="G192">
+        <v>-1.14</v>
+      </c>
+      <c r="H192">
+        <v>0.36</v>
+      </c>
+      <c r="I192">
+        <v>0.82</v>
+      </c>
+      <c r="J192">
+        <v>1.18</v>
+      </c>
+      <c r="K192">
+        <v>1.51</v>
+      </c>
+      <c r="L192">
+        <v>2.09</v>
+      </c>
+      <c r="M192">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193">
+        <v>4.44</v>
+      </c>
+      <c r="C193">
+        <v>4.71</v>
+      </c>
+      <c r="D193">
+        <v>4.91</v>
+      </c>
+      <c r="E193">
+        <v>5.09</v>
+      </c>
+      <c r="F193">
+        <v>5.54</v>
+      </c>
+      <c r="G193">
+        <v>-0.92</v>
+      </c>
+      <c r="H193">
+        <v>0.39</v>
+      </c>
+      <c r="I193">
+        <v>0.85</v>
+      </c>
+      <c r="J193">
+        <v>1.23</v>
+      </c>
+      <c r="K193">
+        <v>1.57</v>
+      </c>
+      <c r="L193">
+        <v>2.16</v>
+      </c>
+      <c r="M193">
+        <v>2.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>Serie</t>
   </si>
@@ -629,6 +629,21 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8902,6 +8917,211 @@
         <v>2.34</v>
       </c>
     </row>
+    <row r="194" spans="1:13">
+      <c r="A194" t="s">
+        <v>205</v>
+      </c>
+      <c r="B194">
+        <v>4.53</v>
+      </c>
+      <c r="C194">
+        <v>4.8</v>
+      </c>
+      <c r="D194">
+        <v>5.01</v>
+      </c>
+      <c r="E194">
+        <v>5.19</v>
+      </c>
+      <c r="F194">
+        <v>5.69</v>
+      </c>
+      <c r="G194">
+        <v>-0.86</v>
+      </c>
+      <c r="H194">
+        <v>0.48</v>
+      </c>
+      <c r="I194">
+        <v>0.95</v>
+      </c>
+      <c r="J194">
+        <v>1.34</v>
+      </c>
+      <c r="K194">
+        <v>1.68</v>
+      </c>
+      <c r="L194">
+        <v>2.31</v>
+      </c>
+      <c r="M194">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" t="s">
+        <v>206</v>
+      </c>
+      <c r="B195">
+        <v>4.66</v>
+      </c>
+      <c r="C195">
+        <v>4.96</v>
+      </c>
+      <c r="D195">
+        <v>5.17</v>
+      </c>
+      <c r="E195">
+        <v>5.37</v>
+      </c>
+      <c r="F195">
+        <v>5.91</v>
+      </c>
+      <c r="G195">
+        <v>-0.75</v>
+      </c>
+      <c r="H195">
+        <v>0.59</v>
+      </c>
+      <c r="I195">
+        <v>1.08</v>
+      </c>
+      <c r="J195">
+        <v>1.49</v>
+      </c>
+      <c r="K195">
+        <v>1.84</v>
+      </c>
+      <c r="L195">
+        <v>2.54</v>
+      </c>
+      <c r="M195">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" t="s">
+        <v>207</v>
+      </c>
+      <c r="B196">
+        <v>4.68</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <v>5.21</v>
+      </c>
+      <c r="E196">
+        <v>5.43</v>
+      </c>
+      <c r="F196">
+        <v>5.98</v>
+      </c>
+      <c r="G196">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="H196">
+        <v>0.61</v>
+      </c>
+      <c r="I196">
+        <v>1.13</v>
+      </c>
+      <c r="J196">
+        <v>1.53</v>
+      </c>
+      <c r="K196">
+        <v>1.89</v>
+      </c>
+      <c r="L196">
+        <v>2.6</v>
+      </c>
+      <c r="M196">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197">
+        <v>4.69</v>
+      </c>
+      <c r="C197">
+        <v>5.01</v>
+      </c>
+      <c r="D197">
+        <v>5.23</v>
+      </c>
+      <c r="E197">
+        <v>5.43</v>
+      </c>
+      <c r="F197">
+        <v>5.97</v>
+      </c>
+      <c r="G197">
+        <v>-0.89</v>
+      </c>
+      <c r="H197">
+        <v>0.55</v>
+      </c>
+      <c r="I197">
+        <v>1.1</v>
+      </c>
+      <c r="J197">
+        <v>1.51</v>
+      </c>
+      <c r="K197">
+        <v>1.87</v>
+      </c>
+      <c r="L197">
+        <v>2.59</v>
+      </c>
+      <c r="M197">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198">
+        <v>4.99</v>
+      </c>
+      <c r="C198">
+        <v>5.3</v>
+      </c>
+      <c r="D198">
+        <v>5.49</v>
+      </c>
+      <c r="E198">
+        <v>5.67</v>
+      </c>
+      <c r="F198">
+        <v>6.17</v>
+      </c>
+      <c r="G198">
+        <v>-1.02</v>
+      </c>
+      <c r="H198">
+        <v>0.54</v>
+      </c>
+      <c r="I198">
+        <v>1.12</v>
+      </c>
+      <c r="J198">
+        <v>1.55</v>
+      </c>
+      <c r="K198">
+        <v>1.95</v>
+      </c>
+      <c r="L198">
+        <v>2.74</v>
+      </c>
+      <c r="M198">
+        <v>2.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -644,6 +644,33 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9122,6 +9149,375 @@
         <v>2.94</v>
       </c>
     </row>
+    <row r="199" spans="1:13">
+      <c r="A199" t="s">
+        <v>210</v>
+      </c>
+      <c r="B199">
+        <v>5.08</v>
+      </c>
+      <c r="C199">
+        <v>5.37</v>
+      </c>
+      <c r="D199">
+        <v>5.56</v>
+      </c>
+      <c r="E199">
+        <v>5.74</v>
+      </c>
+      <c r="F199">
+        <v>6.23</v>
+      </c>
+      <c r="G199">
+        <v>-0.86</v>
+      </c>
+      <c r="H199">
+        <v>0.58</v>
+      </c>
+      <c r="I199">
+        <v>1.15</v>
+      </c>
+      <c r="J199">
+        <v>1.57</v>
+      </c>
+      <c r="K199">
+        <v>1.99</v>
+      </c>
+      <c r="L199">
+        <v>2.78</v>
+      </c>
+      <c r="M199">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" t="s">
+        <v>211</v>
+      </c>
+      <c r="B200">
+        <v>5.02</v>
+      </c>
+      <c r="C200">
+        <v>5.3</v>
+      </c>
+      <c r="D200">
+        <v>5.47</v>
+      </c>
+      <c r="E200">
+        <v>5.64</v>
+      </c>
+      <c r="F200">
+        <v>6.1</v>
+      </c>
+      <c r="G200">
+        <v>-0.8</v>
+      </c>
+      <c r="H200">
+        <v>0.5</v>
+      </c>
+      <c r="I200">
+        <v>1.09</v>
+      </c>
+      <c r="J200">
+        <v>1.51</v>
+      </c>
+      <c r="K200">
+        <v>1.94</v>
+      </c>
+      <c r="L200">
+        <v>2.73</v>
+      </c>
+      <c r="M200">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
+      <c r="A201" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201">
+        <v>5.22</v>
+      </c>
+      <c r="C201">
+        <v>5.36</v>
+      </c>
+      <c r="D201">
+        <v>5.44</v>
+      </c>
+      <c r="E201">
+        <v>5.55</v>
+      </c>
+      <c r="F201">
+        <v>5.92</v>
+      </c>
+      <c r="G201">
+        <v>-0.43</v>
+      </c>
+      <c r="H201">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I201">
+        <v>1.15</v>
+      </c>
+      <c r="J201">
+        <v>1.54</v>
+      </c>
+      <c r="K201">
+        <v>1.96</v>
+      </c>
+      <c r="L201">
+        <v>2.65</v>
+      </c>
+      <c r="M201">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
+      <c r="A202" t="s">
+        <v>213</v>
+      </c>
+      <c r="B202">
+        <v>5.43</v>
+      </c>
+      <c r="C202">
+        <v>5.56</v>
+      </c>
+      <c r="D202">
+        <v>5.66</v>
+      </c>
+      <c r="E202">
+        <v>5.76</v>
+      </c>
+      <c r="F202">
+        <v>6.09</v>
+      </c>
+      <c r="G202">
+        <v>-0.34</v>
+      </c>
+      <c r="H202">
+        <v>0.64</v>
+      </c>
+      <c r="I202">
+        <v>1.25</v>
+      </c>
+      <c r="J202">
+        <v>1.63</v>
+      </c>
+      <c r="K202">
+        <v>2.07</v>
+      </c>
+      <c r="L202">
+        <v>2.78</v>
+      </c>
+      <c r="M202">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" t="s">
+        <v>214</v>
+      </c>
+      <c r="B203">
+        <v>5.36</v>
+      </c>
+      <c r="C203">
+        <v>5.49</v>
+      </c>
+      <c r="D203">
+        <v>5.6</v>
+      </c>
+      <c r="E203">
+        <v>5.71</v>
+      </c>
+      <c r="F203">
+        <v>6.04</v>
+      </c>
+      <c r="G203">
+        <v>-0.36</v>
+      </c>
+      <c r="H203">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I203">
+        <v>1.19</v>
+      </c>
+      <c r="J203">
+        <v>1.56</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>2.7</v>
+      </c>
+      <c r="M203">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="A204" t="s">
+        <v>215</v>
+      </c>
+      <c r="B204">
+        <v>5.29</v>
+      </c>
+      <c r="C204">
+        <v>5.43</v>
+      </c>
+      <c r="D204">
+        <v>5.56</v>
+      </c>
+      <c r="E204">
+        <v>5.67</v>
+      </c>
+      <c r="F204">
+        <v>5.98</v>
+      </c>
+      <c r="G204">
+        <v>-0.42</v>
+      </c>
+      <c r="H204">
+        <v>0.51</v>
+      </c>
+      <c r="I204">
+        <v>1.17</v>
+      </c>
+      <c r="J204">
+        <v>1.52</v>
+      </c>
+      <c r="K204">
+        <v>1.95</v>
+      </c>
+      <c r="L204">
+        <v>2.61</v>
+      </c>
+      <c r="M204">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
+      <c r="A205" t="s">
+        <v>216</v>
+      </c>
+      <c r="B205">
+        <v>5.3</v>
+      </c>
+      <c r="C205">
+        <v>5.44</v>
+      </c>
+      <c r="D205">
+        <v>5.56</v>
+      </c>
+      <c r="E205">
+        <v>5.67</v>
+      </c>
+      <c r="F205">
+        <v>5.98</v>
+      </c>
+      <c r="G205">
+        <v>-0.47</v>
+      </c>
+      <c r="H205">
+        <v>0.54</v>
+      </c>
+      <c r="I205">
+        <v>1.21</v>
+      </c>
+      <c r="J205">
+        <v>1.59</v>
+      </c>
+      <c r="K205">
+        <v>1.97</v>
+      </c>
+      <c r="L205">
+        <v>2.59</v>
+      </c>
+      <c r="M205">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
+      <c r="A206" t="s">
+        <v>217</v>
+      </c>
+      <c r="B206">
+        <v>5.4</v>
+      </c>
+      <c r="C206">
+        <v>5.54</v>
+      </c>
+      <c r="D206">
+        <v>5.67</v>
+      </c>
+      <c r="E206">
+        <v>5.79</v>
+      </c>
+      <c r="F206">
+        <v>6.09</v>
+      </c>
+      <c r="G206">
+        <v>-0.41</v>
+      </c>
+      <c r="H206">
+        <v>0.62</v>
+      </c>
+      <c r="I206">
+        <v>1.29</v>
+      </c>
+      <c r="J206">
+        <v>1.69</v>
+      </c>
+      <c r="K206">
+        <v>2.08</v>
+      </c>
+      <c r="L206">
+        <v>2.67</v>
+      </c>
+      <c r="M206">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="A207" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207">
+        <v>5.36</v>
+      </c>
+      <c r="C207">
+        <v>5.49</v>
+      </c>
+      <c r="D207">
+        <v>5.62</v>
+      </c>
+      <c r="E207">
+        <v>5.73</v>
+      </c>
+      <c r="F207">
+        <v>6.03</v>
+      </c>
+      <c r="G207">
+        <v>-0.44</v>
+      </c>
+      <c r="H207">
+        <v>0.57</v>
+      </c>
+      <c r="I207">
+        <v>1.22</v>
+      </c>
+      <c r="J207">
+        <v>1.59</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>2.61</v>
+      </c>
+      <c r="M207">
+        <v>2.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Serie</t>
   </si>
@@ -671,6 +671,21 @@
   </si>
   <si>
     <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9518,6 +9533,211 @@
         <v>2.66</v>
       </c>
     </row>
+    <row r="208" spans="1:13">
+      <c r="A208" t="s">
+        <v>219</v>
+      </c>
+      <c r="B208">
+        <v>5.18</v>
+      </c>
+      <c r="C208">
+        <v>5.3</v>
+      </c>
+      <c r="D208">
+        <v>5.43</v>
+      </c>
+      <c r="E208">
+        <v>5.54</v>
+      </c>
+      <c r="F208">
+        <v>5.82</v>
+      </c>
+      <c r="G208">
+        <v>-0.68</v>
+      </c>
+      <c r="H208">
+        <v>0.38</v>
+      </c>
+      <c r="I208">
+        <v>1.04</v>
+      </c>
+      <c r="J208">
+        <v>1.41</v>
+      </c>
+      <c r="K208">
+        <v>1.81</v>
+      </c>
+      <c r="L208">
+        <v>2.39</v>
+      </c>
+      <c r="M208">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
+      <c r="A209" t="s">
+        <v>220</v>
+      </c>
+      <c r="B209">
+        <v>5.18</v>
+      </c>
+      <c r="C209">
+        <v>5.29</v>
+      </c>
+      <c r="D209">
+        <v>5.41</v>
+      </c>
+      <c r="E209">
+        <v>5.52</v>
+      </c>
+      <c r="F209">
+        <v>5.78</v>
+      </c>
+      <c r="G209">
+        <v>-0.83</v>
+      </c>
+      <c r="H209">
+        <v>0.31</v>
+      </c>
+      <c r="I209">
+        <v>0.98</v>
+      </c>
+      <c r="J209">
+        <v>1.34</v>
+      </c>
+      <c r="K209">
+        <v>1.73</v>
+      </c>
+      <c r="L209">
+        <v>2.28</v>
+      </c>
+      <c r="M209">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
+      <c r="A210" t="s">
+        <v>221</v>
+      </c>
+      <c r="B210">
+        <v>5.15</v>
+      </c>
+      <c r="C210">
+        <v>5.24</v>
+      </c>
+      <c r="D210">
+        <v>5.36</v>
+      </c>
+      <c r="E210">
+        <v>5.46</v>
+      </c>
+      <c r="F210">
+        <v>5.73</v>
+      </c>
+      <c r="G210">
+        <v>-0.88</v>
+      </c>
+      <c r="H210">
+        <v>0.27</v>
+      </c>
+      <c r="I210">
+        <v>0.96</v>
+      </c>
+      <c r="J210">
+        <v>1.32</v>
+      </c>
+      <c r="K210">
+        <v>1.67</v>
+      </c>
+      <c r="L210">
+        <v>2.2</v>
+      </c>
+      <c r="M210">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="A211" t="s">
+        <v>222</v>
+      </c>
+      <c r="B211">
+        <v>5.2</v>
+      </c>
+      <c r="C211">
+        <v>5.25</v>
+      </c>
+      <c r="D211">
+        <v>5.34</v>
+      </c>
+      <c r="E211">
+        <v>5.43</v>
+      </c>
+      <c r="F211">
+        <v>5.63</v>
+      </c>
+      <c r="G211">
+        <v>-0.77</v>
+      </c>
+      <c r="H211">
+        <v>0.25</v>
+      </c>
+      <c r="I211">
+        <v>0.97</v>
+      </c>
+      <c r="J211">
+        <v>1.29</v>
+      </c>
+      <c r="K211">
+        <v>1.56</v>
+      </c>
+      <c r="L211">
+        <v>2.07</v>
+      </c>
+      <c r="M211">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
+      <c r="A212" t="s">
+        <v>223</v>
+      </c>
+      <c r="B212">
+        <v>5.26</v>
+      </c>
+      <c r="C212">
+        <v>5.3</v>
+      </c>
+      <c r="D212">
+        <v>5.38</v>
+      </c>
+      <c r="E212">
+        <v>5.47</v>
+      </c>
+      <c r="F212">
+        <v>5.68</v>
+      </c>
+      <c r="G212">
+        <v>-1.01</v>
+      </c>
+      <c r="H212">
+        <v>0.21</v>
+      </c>
+      <c r="I212">
+        <v>0.93</v>
+      </c>
+      <c r="J212">
+        <v>1.27</v>
+      </c>
+      <c r="K212">
+        <v>1.51</v>
+      </c>
+      <c r="L212">
+        <v>2.04</v>
+      </c>
+      <c r="M212">
+        <v>2.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -686,6 +686,18 @@
   </si>
   <si>
     <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9738,6 +9750,170 @@
         <v>2.1</v>
       </c>
     </row>
+    <row r="213" spans="1:13">
+      <c r="A213" t="s">
+        <v>224</v>
+      </c>
+      <c r="B213">
+        <v>5.21</v>
+      </c>
+      <c r="C213">
+        <v>5.25</v>
+      </c>
+      <c r="D213">
+        <v>5.33</v>
+      </c>
+      <c r="E213">
+        <v>5.42</v>
+      </c>
+      <c r="F213">
+        <v>5.64</v>
+      </c>
+      <c r="G213">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="H213">
+        <v>0.2</v>
+      </c>
+      <c r="I213">
+        <v>0.9</v>
+      </c>
+      <c r="J213">
+        <v>1.23</v>
+      </c>
+      <c r="K213">
+        <v>1.46</v>
+      </c>
+      <c r="L213">
+        <v>1.95</v>
+      </c>
+      <c r="M213">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="A214" t="s">
+        <v>225</v>
+      </c>
+      <c r="B214">
+        <v>5.22</v>
+      </c>
+      <c r="C214">
+        <v>5.28</v>
+      </c>
+      <c r="D214">
+        <v>5.38</v>
+      </c>
+      <c r="E214">
+        <v>5.47</v>
+      </c>
+      <c r="F214">
+        <v>5.69</v>
+      </c>
+      <c r="G214">
+        <v>-0.88</v>
+      </c>
+      <c r="H214">
+        <v>0.18</v>
+      </c>
+      <c r="I214">
+        <v>0.89</v>
+      </c>
+      <c r="J214">
+        <v>1.23</v>
+      </c>
+      <c r="K214">
+        <v>1.47</v>
+      </c>
+      <c r="L214">
+        <v>1.91</v>
+      </c>
+      <c r="M214">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="A215" t="s">
+        <v>226</v>
+      </c>
+      <c r="B215">
+        <v>5.23</v>
+      </c>
+      <c r="C215">
+        <v>5.28</v>
+      </c>
+      <c r="D215">
+        <v>5.38</v>
+      </c>
+      <c r="E215">
+        <v>5.48</v>
+      </c>
+      <c r="F215">
+        <v>5.73</v>
+      </c>
+      <c r="G215">
+        <v>-1</v>
+      </c>
+      <c r="H215">
+        <v>0.13</v>
+      </c>
+      <c r="I215">
+        <v>0.85</v>
+      </c>
+      <c r="J215">
+        <v>1.2</v>
+      </c>
+      <c r="K215">
+        <v>1.43</v>
+      </c>
+      <c r="L215">
+        <v>1.85</v>
+      </c>
+      <c r="M215">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
+      <c r="A216" t="s">
+        <v>227</v>
+      </c>
+      <c r="B216">
+        <v>5.14</v>
+      </c>
+      <c r="C216">
+        <v>5.18</v>
+      </c>
+      <c r="D216">
+        <v>5.29</v>
+      </c>
+      <c r="E216">
+        <v>5.4</v>
+      </c>
+      <c r="F216">
+        <v>5.64</v>
+      </c>
+      <c r="G216">
+        <v>-1.02</v>
+      </c>
+      <c r="H216">
+        <v>0.11</v>
+      </c>
+      <c r="I216">
+        <v>0.83</v>
+      </c>
+      <c r="J216">
+        <v>1.17</v>
+      </c>
+      <c r="K216">
+        <v>1.39</v>
+      </c>
+      <c r="L216">
+        <v>1.8</v>
+      </c>
+      <c r="M216">
+        <v>1.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
